--- a/Priser Varmepumpeanlegg.xlsx
+++ b/Priser Varmepumpeanlegg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\04 Prosjekt\02 Forprosjekter\Asplanviak\Energisentraler prisoppsett\04 Kalkyle - økonomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmund.fossum\Documents\Prising av varmepumper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AE6E1D-27FB-470C-9035-D12354ADB744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D439031-F6BE-4250-AEEE-CD8E88B9FFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26040" windowHeight="21240" xr2:uid="{4A71A0C1-A87B-483B-8BB1-F157A12F7831}"/>
+    <workbookView xWindow="-57720" yWindow="-3105" windowWidth="29040" windowHeight="17640" xr2:uid="{4A71A0C1-A87B-483B-8BB1-F157A12F7831}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -646,11 +646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2CB58B-9AD9-49FE-BE46-FA1DEC1904AB}">
   <dimension ref="D2:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="41.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -872,7 +872,7 @@
       </c>
     </row>
     <row r="14" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="4:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
@@ -922,18 +922,53 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <RevisjonsDato xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a" xsi:nil="true"/>
-    <Dokumenttema xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a" xsi:nil="true"/>
-    <Revisjon xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a">PXKQP6RXCUU6-2093147327-192</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a">
-      <Url>https://asplanviak.sharepoint.com/sites/981005-12/_layouts/15/DocIdRedir.aspx?ID=PXKQP6RXCUU6-2093147327-192</Url>
-      <Description>PXKQP6RXCUU6-2093147327-192</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,53 +1190,18 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <RevisjonsDato xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a" xsi:nil="true"/>
+    <Dokumenttema xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a" xsi:nil="true"/>
+    <Revisjon xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a">PXKQP6RXCUU6-2093147327-192</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a">
+      <Url>https://asplanviak.sharepoint.com/sites/981005-12/_layouts/15/DocIdRedir.aspx?ID=PXKQP6RXCUU6-2093147327-192</Url>
+      <Description>PXKQP6RXCUU6-2093147327-192</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,18 +1213,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F0A231-5102-4F55-B5C7-E1AEBAF7D418}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DA0DDA7-20BF-42D1-87D7-13190F39613F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f043427e-8fdb-4c9b-a691-6ec1ffb6e579"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1249,9 +1240,18 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DA0DDA7-20BF-42D1-87D7-13190F39613F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F0A231-5102-4F55-B5C7-E1AEBAF7D418}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ff6cb80b-9aea-43c6-bd33-0ab97a8d725a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f043427e-8fdb-4c9b-a691-6ec1ffb6e579"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>